--- a/xx_overview/20221010_Auswertung_Metriken.xlsx
+++ b/xx_overview/20221010_Auswertung_Metriken.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ga84kuj\Documents\R\Multilab_Analysis\xx_overview\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6F64650-6A58-498C-B687-39FFC746A480}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{894C1BF6-080C-4BEB-96ED-2312FD2106BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="375" xr2:uid="{E862D693-EF21-44AF-8D63-EF763FEB6A34}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="375" activeTab="1" xr2:uid="{E862D693-EF21-44AF-8D63-EF763FEB6A34}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="EyeTracking" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
+    <sheet name="EyeTracking" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$T$1</definedName>
@@ -55,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="211">
   <si>
     <t>Questionnaires</t>
   </si>
@@ -726,6 +727,111 @@
       </rPr>
       <t>-&gt; Fahrdaten</t>
     </r>
+  </si>
+  <si>
+    <t>TOST, student</t>
+  </si>
+  <si>
+    <t>PB</t>
+  </si>
+  <si>
+    <t>LRT</t>
+  </si>
+  <si>
+    <t>identity</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>[0,25]</t>
+  </si>
+  <si>
+    <t>TimeToL0_max25</t>
+  </si>
+  <si>
+    <t>DB</t>
+  </si>
+  <si>
+    <t>FirstGlanceDuration_ic</t>
+  </si>
+  <si>
+    <t>1st_glance_duration_ic</t>
+  </si>
+  <si>
+    <t>GlanceAllocationTime_ic</t>
+  </si>
+  <si>
+    <t>[0,100] %</t>
+  </si>
+  <si>
+    <t>AttentionRatio_surt</t>
+  </si>
+  <si>
+    <t>ET</t>
+  </si>
+  <si>
+    <t>TOST, Wilcoxon</t>
+  </si>
+  <si>
+    <t>log</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>1,2,3,4,5</t>
+  </si>
+  <si>
+    <t>ER</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>logit</t>
+  </si>
+  <si>
+    <t>TransProblems_score</t>
+  </si>
+  <si>
+    <t>AvailReasonCorrect_score</t>
+  </si>
+  <si>
+    <t>AvailImplem_Rep_score</t>
+  </si>
+  <si>
+    <t>LevelObserved_Instr_score</t>
+  </si>
+  <si>
+    <t>HandsOffAllow_Observed_score</t>
+  </si>
+  <si>
+    <t>EmailsAllow_Observed_score</t>
+  </si>
+  <si>
+    <t>LevelObserved_Rep_score</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t>Equivalence</t>
+  </si>
+  <si>
+    <t>better would be</t>
+  </si>
+  <si>
+    <t>method</t>
+  </si>
+  <si>
+    <t>link</t>
+  </si>
+  <si>
+    <t>default link</t>
+  </si>
+  <si>
+    <t>family</t>
   </si>
 </sst>
 </file>
@@ -1240,7 +1346,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1570,6 +1676,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1697,7 +1804,7 @@
       <xdr:row>1</xdr:row>
       <xdr:rowOff>235323</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="6017559" cy="4600490"/>
+    <xdr:ext cx="6017559" cy="3849131"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="3" name="TextBox 2">
@@ -1711,8 +1818,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15140747" y="534680"/>
-          <a:ext cx="6017559" cy="4600490"/>
+          <a:off x="15160540" y="529732"/>
+          <a:ext cx="6017559" cy="3849131"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1755,21 +1862,6 @@
           <a:br>
             <a:rPr lang="en-US" sz="1600"/>
           </a:br>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" baseline="0"/>
-            <a:t>- Äquivalenztest für ChiSq</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" baseline="0"/>
-            <a:t>- Inferenzstatistische Werte für ET und DB</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1600" baseline="0"/>
-        </a:p>
-        <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1600" baseline="0"/>
             <a:t>- Quali: Blickpfade</a:t>
@@ -2161,8 +2253,8 @@
   </sheetPr>
   <dimension ref="A1:T75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2697,7 +2789,7 @@
         <v>5</v>
       </c>
       <c r="E17" s="18">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F17" s="18" t="s">
         <v>99</v>
@@ -2731,7 +2823,7 @@
         <v>5</v>
       </c>
       <c r="E18" s="18">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F18" s="18" t="s">
         <v>99</v>
@@ -2765,7 +2857,7 @@
         <v>5</v>
       </c>
       <c r="E19" s="18">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F19" s="18" t="s">
         <v>99</v>
@@ -2830,7 +2922,7 @@
         <v>5</v>
       </c>
       <c r="E21" s="30">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F21" s="18" t="s">
         <v>99</v>
@@ -3130,7 +3222,7 @@
         <v>5</v>
       </c>
       <c r="E33" s="18">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F33" s="19" t="s">
         <v>110</v>
@@ -3195,7 +3287,7 @@
         <v>5</v>
       </c>
       <c r="E35" s="19">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F35" s="19" t="s">
         <v>84</v>
@@ -3322,7 +3414,7 @@
         <v>5</v>
       </c>
       <c r="E39" s="19">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F39" s="19" t="s">
         <v>84</v>
@@ -3628,7 +3720,7 @@
         <v>5</v>
       </c>
       <c r="E49" s="18">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F49" s="18" t="s">
         <v>99</v>
@@ -3713,10 +3805,10 @@
         <v>22</v>
       </c>
       <c r="D52" s="19">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E52" s="19">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F52" s="19" t="s">
         <v>84</v>
@@ -3762,26 +3854,21 @@
       <c r="L53" s="62"/>
     </row>
     <row r="54" spans="1:20" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="96" t="s">
-        <v>151</v>
-      </c>
-      <c r="B54" s="102" t="s">
-        <v>101</v>
-      </c>
-      <c r="C54" s="26" t="s">
+      <c r="B54" s="95"/>
+      <c r="C54" s="94" t="s">
         <v>24</v>
       </c>
       <c r="D54" s="18">
-        <v>0</v>
-      </c>
-      <c r="E54" s="18">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="E54" s="82" t="s">
+        <v>128</v>
       </c>
       <c r="F54" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="G54" s="29" t="s">
-        <v>137</v>
+      <c r="G54" s="17" t="s">
+        <v>90</v>
       </c>
       <c r="H54" s="19"/>
       <c r="I54" s="61"/>
@@ -3970,7 +4057,7 @@
         <v>5</v>
       </c>
       <c r="E61" s="22">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F61" s="22" t="s">
         <v>109</v>
@@ -4090,6 +4177,9 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="D1:E1048576">
+    <cfRule type="containsText" dxfId="0" priority="7" operator="containsText" text="/">
+      <formula>NOT(ISERROR(SEARCH("/",D1)))</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -4100,9 +4190,6 @@
         <color rgb="FF00B050"/>
       </colorScale>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="7" operator="containsText" text="/">
-      <formula>NOT(ISERROR(SEARCH("/",D1)))</formula>
-    </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="1.1417322834645669" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="574" scale="46" orientation="landscape" r:id="rId1"/>
@@ -4112,6 +4199,368 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4323B722-4D47-46BA-9D5B-3DB821855834}">
+  <dimension ref="B3:N18"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:O18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>210</v>
+      </c>
+      <c r="F3" t="s">
+        <v>209</v>
+      </c>
+      <c r="G3" t="s">
+        <v>208</v>
+      </c>
+      <c r="H3" t="s">
+        <v>207</v>
+      </c>
+      <c r="I3" t="s">
+        <v>206</v>
+      </c>
+      <c r="K3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>204</v>
+      </c>
+      <c r="C4" t="s">
+        <v>203</v>
+      </c>
+      <c r="D4">
+        <v>0.1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>152</v>
+      </c>
+      <c r="F4" t="s">
+        <v>180</v>
+      </c>
+      <c r="G4" t="s">
+        <v>196</v>
+      </c>
+      <c r="H4" t="s">
+        <v>178</v>
+      </c>
+      <c r="I4" t="s">
+        <v>177</v>
+      </c>
+      <c r="K4" s="115" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>202</v>
+      </c>
+      <c r="D5">
+        <v>0.1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>152</v>
+      </c>
+      <c r="F5" t="s">
+        <v>180</v>
+      </c>
+      <c r="G5" t="s">
+        <v>196</v>
+      </c>
+      <c r="H5" t="s">
+        <v>178</v>
+      </c>
+      <c r="I5" t="s">
+        <v>177</v>
+      </c>
+      <c r="K5" s="115" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>201</v>
+      </c>
+      <c r="D6">
+        <v>0.1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>152</v>
+      </c>
+      <c r="F6" t="s">
+        <v>180</v>
+      </c>
+      <c r="G6" t="s">
+        <v>196</v>
+      </c>
+      <c r="H6" t="s">
+        <v>178</v>
+      </c>
+      <c r="I6" t="s">
+        <v>177</v>
+      </c>
+      <c r="K6" s="115" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>200</v>
+      </c>
+      <c r="D7">
+        <v>0.1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F7" t="s">
+        <v>180</v>
+      </c>
+      <c r="G7" t="s">
+        <v>196</v>
+      </c>
+      <c r="H7" t="s">
+        <v>178</v>
+      </c>
+      <c r="I7" t="s">
+        <v>177</v>
+      </c>
+      <c r="K7" s="115" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>199</v>
+      </c>
+      <c r="D8">
+        <v>0.1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>152</v>
+      </c>
+      <c r="F8" t="s">
+        <v>180</v>
+      </c>
+      <c r="G8" t="s">
+        <v>196</v>
+      </c>
+      <c r="H8" t="s">
+        <v>178</v>
+      </c>
+      <c r="I8" t="s">
+        <v>177</v>
+      </c>
+      <c r="K8" s="115" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>198</v>
+      </c>
+      <c r="D9">
+        <v>0.1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>152</v>
+      </c>
+      <c r="F9" t="s">
+        <v>180</v>
+      </c>
+      <c r="G9" t="s">
+        <v>196</v>
+      </c>
+      <c r="H9" t="s">
+        <v>178</v>
+      </c>
+      <c r="I9" t="s">
+        <v>177</v>
+      </c>
+      <c r="K9" s="115" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>197</v>
+      </c>
+      <c r="D10">
+        <v>0.1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>152</v>
+      </c>
+      <c r="F10" t="s">
+        <v>180</v>
+      </c>
+      <c r="G10" t="s">
+        <v>196</v>
+      </c>
+      <c r="H10" t="s">
+        <v>178</v>
+      </c>
+      <c r="I10" t="s">
+        <v>177</v>
+      </c>
+      <c r="K10" s="115" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>194</v>
+      </c>
+      <c r="C12" t="s">
+        <v>194</v>
+      </c>
+      <c r="D12" t="s">
+        <v>193</v>
+      </c>
+      <c r="E12" t="s">
+        <v>150</v>
+      </c>
+      <c r="F12" t="s">
+        <v>192</v>
+      </c>
+      <c r="G12" t="s">
+        <v>191</v>
+      </c>
+      <c r="H12" t="s">
+        <v>178</v>
+      </c>
+      <c r="I12" t="s">
+        <v>177</v>
+      </c>
+      <c r="K12" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>189</v>
+      </c>
+      <c r="C14" t="s">
+        <v>188</v>
+      </c>
+      <c r="D14" t="s">
+        <v>187</v>
+      </c>
+      <c r="E14" t="s">
+        <v>150</v>
+      </c>
+      <c r="F14" t="s">
+        <v>180</v>
+      </c>
+      <c r="G14" t="s">
+        <v>179</v>
+      </c>
+      <c r="H14" t="s">
+        <v>178</v>
+      </c>
+      <c r="I14" t="s">
+        <v>177</v>
+      </c>
+      <c r="K14" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>186</v>
+      </c>
+      <c r="D15" t="s">
+        <v>181</v>
+      </c>
+      <c r="E15" t="s">
+        <v>150</v>
+      </c>
+      <c r="F15" t="s">
+        <v>180</v>
+      </c>
+      <c r="G15" t="s">
+        <v>179</v>
+      </c>
+      <c r="H15" t="s">
+        <v>178</v>
+      </c>
+      <c r="I15" t="s">
+        <v>177</v>
+      </c>
+      <c r="K15" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>185</v>
+      </c>
+      <c r="D16" t="s">
+        <v>181</v>
+      </c>
+      <c r="E16" t="s">
+        <v>150</v>
+      </c>
+      <c r="F16" t="s">
+        <v>180</v>
+      </c>
+      <c r="G16" t="s">
+        <v>179</v>
+      </c>
+      <c r="H16" t="s">
+        <v>178</v>
+      </c>
+      <c r="I16" t="s">
+        <v>177</v>
+      </c>
+      <c r="K16" t="s">
+        <v>176</v>
+      </c>
+      <c r="N16" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>183</v>
+      </c>
+      <c r="C18" t="s">
+        <v>182</v>
+      </c>
+      <c r="D18" t="s">
+        <v>181</v>
+      </c>
+      <c r="E18" t="s">
+        <v>150</v>
+      </c>
+      <c r="F18" t="s">
+        <v>180</v>
+      </c>
+      <c r="G18" t="s">
+        <v>179</v>
+      </c>
+      <c r="H18" t="s">
+        <v>178</v>
+      </c>
+      <c r="I18" t="s">
+        <v>177</v>
+      </c>
+      <c r="K18" t="s">
+        <v>176</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C8ED06B-E7C4-4A35-AD2F-DFF1687DB265}">
   <dimension ref="B6:I26"/>
   <sheetViews>
